--- a/slides/Chapter06/Expenses_xlsxwriter.xlsx
+++ b/slides/Chapter06/Expenses_xlsxwriter.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,10 +392,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <f>SUM(B1:B3)</f>
+      <c r="B5">
+        <f>SUM(B1:B4)</f>
         <v>0</v>
       </c>
     </row>
